--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -549,10 +549,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>3.771575413233332</v>
+        <v>8.196464559381667</v>
       </c>
       <c r="R2">
-        <v>33.94417871909999</v>
+        <v>73.768181034435</v>
       </c>
       <c r="S2">
-        <v>0.02307086359062058</v>
+        <v>0.0477562264046628</v>
       </c>
       <c r="T2">
-        <v>0.02307086359062058</v>
+        <v>0.0477562264046628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
         <v>127.8008846982183</v>
@@ -641,10 +641,10 @@
         <v>1150.207962283965</v>
       </c>
       <c r="S3">
-        <v>0.7817626467942015</v>
+        <v>0.7446244585268781</v>
       </c>
       <c r="T3">
-        <v>0.7817626467942015</v>
+        <v>0.7446244585268781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>3.189807538581666</v>
+        <v>5.563059957395</v>
       </c>
       <c r="R4">
-        <v>28.708267847235</v>
+        <v>50.067539616555</v>
       </c>
       <c r="S4">
-        <v>0.01951216840176119</v>
+        <v>0.03241284689311354</v>
       </c>
       <c r="T4">
-        <v>0.01951216840176119</v>
+        <v>0.03241284689311354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>22.60162268858333</v>
+        <v>20.92128947726666</v>
       </c>
       <c r="R5">
-        <v>203.41460419725</v>
+        <v>188.2916052954</v>
       </c>
       <c r="S5">
-        <v>0.1382549457039643</v>
+        <v>0.1218966823702351</v>
       </c>
       <c r="T5">
-        <v>0.1382549457039643</v>
+        <v>0.1218966823702351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>1.827337631106667</v>
+        <v>2.036747413508333</v>
       </c>
       <c r="R6">
-        <v>16.44603867996</v>
+        <v>18.330726721575</v>
       </c>
       <c r="S6">
-        <v>0.01117789056354247</v>
+        <v>0.01186699093297282</v>
       </c>
       <c r="T6">
-        <v>0.01117789056354247</v>
+        <v>0.01186699093297282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>22.544385</v>
       </c>
       <c r="I7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>3.002914586931666</v>
+        <v>3.280268135859999</v>
       </c>
       <c r="R7">
-        <v>27.026231282385</v>
+        <v>29.52241322274</v>
       </c>
       <c r="S7">
-        <v>0.01836893743826597</v>
+        <v>0.01911229245599875</v>
       </c>
       <c r="T7">
-        <v>0.01836893743826597</v>
+        <v>0.01911229245599875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N8">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q8">
-        <v>0.02985088056888888</v>
+        <v>0.187211703034</v>
       </c>
       <c r="R8">
-        <v>0.26865792512</v>
+        <v>1.684905327306</v>
       </c>
       <c r="S8">
-        <v>0.0001825989190745993</v>
+        <v>0.001090778153302802</v>
       </c>
       <c r="T8">
-        <v>0.0001825989190745994</v>
+        <v>0.001090778153302802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>51.019709</v>
       </c>
       <c r="O9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q9">
-        <v>1.011505412920889</v>
+        <v>2.919041630726</v>
       </c>
       <c r="R9">
-        <v>9.103548716288</v>
+        <v>26.271374676534</v>
       </c>
       <c r="S9">
-        <v>0.006187415296216018</v>
+        <v>0.01700762712894635</v>
       </c>
       <c r="T9">
-        <v>0.00618741529621602</v>
+        <v>0.01700762712894635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N10">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q10">
-        <v>0.02524636350577777</v>
+        <v>0.127063311402</v>
       </c>
       <c r="R10">
-        <v>0.227217271552</v>
+        <v>1.143569802618</v>
       </c>
       <c r="S10">
-        <v>0.0001544329212024658</v>
+        <v>0.0007403270304017335</v>
       </c>
       <c r="T10">
-        <v>0.0001544329212024658</v>
+        <v>0.0007403270304017337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N11">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O11">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P11">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q11">
-        <v>0.1788850190222222</v>
+        <v>0.4778536165599999</v>
       </c>
       <c r="R11">
-        <v>1.6099651712</v>
+        <v>4.300682549039999</v>
       </c>
       <c r="S11">
-        <v>0.001094246149178599</v>
+        <v>0.002784186442263813</v>
       </c>
       <c r="T11">
-        <v>0.001094246149178599</v>
+        <v>0.002784186442263814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H12">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I12">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J12">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N12">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q12">
-        <v>0.01446282558577778</v>
+        <v>0.04652041733</v>
       </c>
       <c r="R12">
-        <v>0.130165430272</v>
+        <v>0.41868375597</v>
       </c>
       <c r="S12">
-        <v>8.846962864739978E-05</v>
+        <v>0.0002710485193165377</v>
       </c>
       <c r="T12">
-        <v>8.84696286473998E-05</v>
+        <v>0.0002710485193165378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H13">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I13">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J13">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N13">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q13">
-        <v>0.02376716222577778</v>
+        <v>0.07492310613599999</v>
       </c>
       <c r="R13">
-        <v>0.213904460032</v>
+        <v>0.674307955224</v>
       </c>
       <c r="S13">
-        <v>0.0001453845933248866</v>
+        <v>0.0004365351419077349</v>
       </c>
       <c r="T13">
-        <v>0.0001453845933248867</v>
+        <v>0.000436535141907735</v>
       </c>
     </row>
   </sheetData>
